--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5FCA5-7804-4C51-B436-A37F4B145C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088F8C0-B2B4-4FDC-96C5-7BD5B5C18D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>7</v>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9088F8C0-B2B4-4FDC-96C5-7BD5B5C18D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48E238-0983-4A78-9125-72ED942F2A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,30 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{561C058C-FF51-4469-B425-17E1B737D5AC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Suresh Chirra: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sheet Names must be separates with COMMA (,)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{4F58CB02-0B35-4980-A46C-B6EAA1AEF1A4}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{4F58CB02-0B35-4980-A46C-B6EAA1AEF1A4}">
       <text>
         <r>
           <rPr>
@@ -109,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Field Name</t>
   </si>
@@ -153,16 +130,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>TestData_1,TestData_2</t>
-  </si>
-  <si>
     <t>Driver_Type</t>
   </si>
   <si>
     <t>Element_Max_Wait_Time</t>
-  </si>
-  <si>
-    <t>Test_Data_Sheet_Names</t>
   </si>
   <si>
     <t>Is_Parallel_Execution</t>
@@ -559,7 +530,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +559,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -600,7 +571,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -612,18 +583,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>7</v>
@@ -633,12 +604,6 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">
         <v>10</v>
@@ -674,10 +639,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{6374D929-52B7-4B36-8032-988C8FF04357}">
       <formula1>$I$1:$I$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{E78C1FC1-6494-4184-9AB8-B752BD82FF32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{E78C1FC1-6494-4184-9AB8-B752BD82FF32}">
       <formula1>$I$5:$I$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{7835AC62-25CE-420C-9CD2-062BCE49721B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7835AC62-25CE-420C-9CD2-062BCE49721B}">
       <formula1>$I$8:$I$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F48E238-0983-4A78-9125-72ED942F2A0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC6916-9DFD-4743-B571-4FA68A6FBFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,12 +81,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{88C45DAD-F9DF-4649-A276-85D0965DF05B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Suresh Chirra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes
+No
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Field Name</t>
   </si>
@@ -106,9 +132,6 @@
     <t>Web HeadLess Driver</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>Is Parallel Execution</t>
   </si>
   <si>
@@ -140,6 +163,12 @@
   </si>
   <si>
     <t>Parallel_Execution_Count</t>
+  </si>
+  <si>
+    <t>Want_To_Rerun_FailedCases_Once</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -530,12 +559,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="25.90625" customWidth="1"/>
@@ -559,7 +588,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -571,10 +600,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="2" t="s">
@@ -583,50 +612,56 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +674,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{6374D929-52B7-4B36-8032-988C8FF04357}">
       <formula1>$I$1:$I$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{E78C1FC1-6494-4184-9AB8-B752BD82FF32}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B6" xr:uid="{E78C1FC1-6494-4184-9AB8-B752BD82FF32}">
       <formula1>$I$5:$I$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7835AC62-25CE-420C-9CD2-062BCE49721B}">

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AC6916-9DFD-4743-B571-4FA68A6FBFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D831EA2-CDE9-41C2-9DCB-4299B0EF9C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D831EA2-CDE9-41C2-9DCB-4299B0EF9C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720F1DE-6506-41C2-B7E7-89E1FE446879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1720F1DE-6506-41C2-B7E7-89E1FE446879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF26257-265E-4CF1-89A4-E1F22FE05A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="2" t="s">

--- a/src/main/resources/Config/Config.xlsx
+++ b/src/main/resources/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshChirra\Desktop\IBM_Projects\Selenium_WS\in.ibm.chirra.saf\src\main\resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF26257-265E-4CF1-89A4-E1F22FE05A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CE31B1-4079-498E-A4CC-3BC46C528AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <t>Want_To_Rerun_FailedCases_Once</t>
   </si>
   <si>
-    <t>0</t>
+    <t>30</t>
   </si>
 </sst>
 </file>
